--- a/ig/ch-term/CodeSystem-2.16.756.5.30.1.127.3.10.10.xlsx
+++ b/ig/ch-term/CodeSystem-2.16.756.5.30.1.127.3.10.10.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -87,9 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Document format as per Annex; EPRO-FDHA.
-      		This unambiguous code defines the format of the XDS document. Together with the mimetype, this should provide the potential consumer with sufficient information as to whether they are in a position to process the document.
-    	</t>
+    <t>Document format as per Annex; EPRO-FDHA.       		This unambiguous code defines the format of the XDS document. Together with the mimetype, this should provide the potential consumer with sufficient information as to whether they are in a position to process the document.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -152,22 +150,58 @@
     <t>Unstructured EPR document</t>
   </si>
   <si>
+    <t>urn:che:epr:ch-vacd:immunization-administration:2022</t>
+  </si>
+  <si>
+    <t>CH VACD Immunization Administration</t>
+  </si>
+  <si>
+    <t>urn:che:epr:ch-vacd:vaccination-record:2022</t>
+  </si>
+  <si>
+    <t>CH VACD Vaccination Record</t>
+  </si>
+  <si>
     <t>urn:che:epr:ch-emed:medication-card:2023</t>
   </si>
   <si>
     <t>CH EMED Medication Card document</t>
   </si>
   <si>
-    <t>urn:che:epr:ch-vacd:immunization-administration:2022</t>
-  </si>
-  <si>
-    <t>CH VACD Immunization Administration</t>
-  </si>
-  <si>
-    <t>urn:che:epr:ch-vacd:vaccination-record:2022</t>
-  </si>
-  <si>
-    <t>CH VACD Vaccination Record</t>
+    <t>urn:che:epr:ch-emed:mtp:2024</t>
+  </si>
+  <si>
+    <t>CH EMED Medication Treatment Plan document</t>
+  </si>
+  <si>
+    <t>urn:che:epr:ch-emed:pre:2024</t>
+  </si>
+  <si>
+    <t>CH EMED Medication Prescription document</t>
+  </si>
+  <si>
+    <t>urn:che:epr:ch-emed:dis:2024</t>
+  </si>
+  <si>
+    <t>CH EMED Medication Dispense document</t>
+  </si>
+  <si>
+    <t>urn:che:epr:ch-emed:padv:2024</t>
+  </si>
+  <si>
+    <t>CH EMED Pharmaceutical Advice document</t>
+  </si>
+  <si>
+    <t>urn:che:epr:ch-emed:pml:2024</t>
+  </si>
+  <si>
+    <t>CH EMED Medication List document</t>
+  </si>
+  <si>
+    <t>urn:che:epr:ch-allergyintolerance:2024</t>
+  </si>
+  <si>
+    <t>CH AllergyIntolerance document</t>
   </si>
 </sst>
 </file>
@@ -488,7 +522,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,6 +590,78 @@
       </c>
       <c r="D5" s="2"/>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-term/CodeSystem-2.16.756.5.30.1.127.3.10.10.xlsx
+++ b/ig/ch-term/CodeSystem-2.16.756.5.30.1.127.3.10.10.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-term/CodeSystem-2.16.756.5.30.1.127.3.10.10.xlsx
+++ b/ig/ch-term/CodeSystem-2.16.756.5.30.1.127.3.10.10.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-15T10:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
